--- a/VR Karting/Results/728.xlsx
+++ b/VR Karting/Results/728.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="17300" yWindow="3400" windowWidth="17040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3240" yWindow="2140" windowWidth="17040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,9 @@
     <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Session 2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6428,7 +6430,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -6525,7 +6527,1581 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.4540863</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.3213882</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.718895</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5050812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.114136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.9483032</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.6819611</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.288864</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.3166885</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.8132172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.267746</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.06427</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5921631000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5370483</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.8198395000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.6501312</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.3731995</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.9151917000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.096191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.8703461</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.5804596</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.8840789999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.283401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.385437</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.7902832</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.5876922999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.8859253</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.349884</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.6682434</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.3108826</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.3553162</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5292358</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.174011</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.754181</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.709198</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.9938049</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.35025</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.951996</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.477936</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.244629</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.6192932</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.5269470000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.6402893</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.8823853</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5501709</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.4672241</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.838593</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5653381</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.7537537</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.227081</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.8840942000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.04248</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.6854553</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.4818115</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.6620789</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.8514099000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.7122096999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.5797061999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.7824821</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.461483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.5653076</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.4983444</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.9455948</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.418175</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.3279419</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.3290634</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.213425</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.8930359</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.4001312</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.8379517</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.7138901</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.6542816</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.166519</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.642319</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.4454956</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.5680389</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.568268</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.9467773</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.110519</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.433365</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.314606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.611969</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.52327</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.221954</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.8616028</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.4254456</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.919617</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.358185</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.745285</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.3591309</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8817444</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.6528931</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.7864989999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.056946</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.5457457999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.7607727</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.3158264</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.562561</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.7577515</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.731171</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.7536011</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.6832275</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.4814758</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.185852</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.4221191</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.4103394</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.6399840999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.8691101</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.705048</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.607849</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.9977722</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.7055053999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6549,6 +8125,11 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6562,6 +8143,9 @@
       <c r="C2" t="n">
         <v>0.5</v>
       </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6575,6 +8159,9 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6588,6 +8175,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6601,6 +8191,9 @@
       <c r="C5" t="n">
         <v>0.5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6614,6 +8207,9 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6627,6 +8223,9 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6640,6 +8239,9 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6653,6 +8255,9 @@
       <c r="C9" t="n">
         <v>0.5</v>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6666,6 +8271,9 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6679,6 +8287,9 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6692,6 +8303,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6705,6 +8319,9 @@
       <c r="C13" t="n">
         <v>0.5</v>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6718,6 +8335,9 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6731,6 +8351,9 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6744,6 +8367,9 @@
       <c r="C16" t="n">
         <v>0.5</v>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6757,6 +8383,9 @@
       <c r="C17" t="n">
         <v>0.5</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6770,6 +8399,9 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6783,6 +8415,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6796,6 +8431,9 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6809,6 +8447,9 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6822,6 +8463,9 @@
       <c r="C22" t="n">
         <v>0.5</v>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6835,6 +8479,9 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6848,6 +8495,9 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6861,6 +8511,9 @@
       <c r="C25" t="n">
         <v>1</v>
       </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6874,6 +8527,9 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6887,6 +8543,9 @@
       <c r="C27" t="n">
         <v>1</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6900,6 +8559,9 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6913,6 +8575,9 @@
       <c r="C29" t="n">
         <v>0.5</v>
       </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6926,6 +8591,9 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6939,6 +8607,9 @@
       <c r="C31" t="n">
         <v>1</v>
       </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6952,6 +8623,9 @@
       <c r="C32" t="n">
         <v>1</v>
       </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6965,6 +8639,9 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6978,6 +8655,9 @@
       <c r="C34" t="n">
         <v>1</v>
       </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6991,6 +8671,9 @@
       <c r="C35" t="n">
         <v>1</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7004,6 +8687,9 @@
       <c r="C36" t="n">
         <v>1</v>
       </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7017,6 +8703,9 @@
       <c r="C37" t="n">
         <v>1</v>
       </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7030,6 +8719,9 @@
       <c r="C38" t="n">
         <v>0.5</v>
       </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7043,6 +8735,9 @@
       <c r="C39" t="n">
         <v>1</v>
       </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7056,6 +8751,9 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7069,6 +8767,9 @@
       <c r="C41" t="n">
         <v>1</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7082,6 +8783,9 @@
       <c r="C42" t="n">
         <v>1</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7095,6 +8799,9 @@
       <c r="C43" t="n">
         <v>0.5</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7108,6 +8815,9 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7121,6 +8831,9 @@
       <c r="C45" t="n">
         <v>1</v>
       </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7134,6 +8847,9 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7147,6 +8863,9 @@
       <c r="C47" t="n">
         <v>1</v>
       </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7160,6 +8879,9 @@
       <c r="C48" t="n">
         <v>1</v>
       </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7173,6 +8895,9 @@
       <c r="C49" t="n">
         <v>1</v>
       </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7186,6 +8911,9 @@
       <c r="C50" t="n">
         <v>1</v>
       </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7199,6 +8927,9 @@
       <c r="C51" t="n">
         <v>1</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7212,6 +8943,9 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7225,6 +8959,9 @@
       <c r="C53" t="n">
         <v>1</v>
       </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7238,6 +8975,9 @@
       <c r="C54" t="n">
         <v>1</v>
       </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7251,6 +8991,9 @@
       <c r="C55" t="n">
         <v>0.5</v>
       </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7264,6 +9007,9 @@
       <c r="C56" t="n">
         <v>1</v>
       </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7275,6 +9021,9 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
         <v>1</v>
       </c>
     </row>
